--- a/src/test/resources/file.xlsx
+++ b/src/test/resources/file.xlsx
@@ -97,13 +97,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,8 +369,8 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1">
-        <v>2234.0</v>
+      <c r="G2" s="3">
+        <v>22.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>

--- a/src/test/resources/file.xlsx
+++ b/src/test/resources/file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>email</t>
   </si>
@@ -39,7 +39,19 @@
     <t>postcode</t>
   </si>
   <si>
-    <t>test@test.com</t>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>test2@test.com</t>
   </si>
   <si>
     <t>Aa12345678##</t>
@@ -55,13 +67,22 @@
   </si>
   <si>
     <t>giza</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Elshafay</t>
+  </si>
+  <si>
+    <t>10/05/1990</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -71,6 +92,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -97,15 +123,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -349,28 +381,52 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3">
         <v>22.0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.001010101E10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
